--- a/docs/Examples/Opx_and_Opx_Liq_Thermobarometry/Opx_Liq_Example.xlsx
+++ b/docs/Examples/Opx_and_Opx_Liq_Thermobarometry/Opx_Liq_Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\Examples\Opx_and_Opx_Liq_Thermobarometry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\docs\Examples\Opx_and_Opx_Liq_Thermobarometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBB8A5B-EAAC-4058-ACC3-31FC336E5374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC71B1D9-DC7B-403B-B9D0-E16E726A790D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E8E7985B-3CF2-4EFE-9D4B-8895F7D277F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="2" xr2:uid="{E8E7985B-3CF2-4EFE-9D4B-8895F7D277F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Paired_Opx_Liq" sheetId="1" r:id="rId1"/>
@@ -585,9 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477760D-8872-44D0-99F1-C56BCECBE94C}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1026,7 +1024,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936051E7-570A-41E5-80BB-63A8F3B850B8}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1264,11 +1264,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10AE9AE-D4E4-4C6F-8B69-1C198E860578}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
